--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_20_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_20_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1307281.353475728</v>
+        <v>1303524.96376594</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5915902.834835908</v>
+        <v>5915902.834835916</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3941495.026858035</v>
+        <v>3941495.026858034</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>408.9851551450806</v>
       </c>
       <c r="C11" t="n">
-        <v>420.7096284534326</v>
+        <v>420.7096284534328</v>
       </c>
       <c r="D11" t="n">
-        <v>418.4992673423216</v>
+        <v>418.4992673423218</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>410.537335659906</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>382.4562447723392</v>
+        <v>255.8257194591011</v>
       </c>
       <c r="H11" t="n">
-        <v>253.9729163065503</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>196.6021193806008</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>243.428564928723</v>
       </c>
       <c r="V11" t="n">
-        <v>1.91480395373942</v>
+        <v>345.9393609305336</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>401.8996191515041</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>176.8490128968189</v>
+        <v>176.8490128968191</v>
       </c>
       <c r="C13" t="n">
-        <v>157.7846747666289</v>
+        <v>157.7846747666292</v>
       </c>
       <c r="D13" t="n">
-        <v>151.1677932355142</v>
+        <v>151.1677932355144</v>
       </c>
       <c r="E13" t="n">
-        <v>155.0090040767917</v>
+        <v>155.009004076792</v>
       </c>
       <c r="F13" t="n">
-        <v>161.888563862883</v>
+        <v>161.8885638628832</v>
       </c>
       <c r="G13" t="n">
-        <v>150.0423489486284</v>
+        <v>150.0423489486286</v>
       </c>
       <c r="H13" t="n">
-        <v>117.9692003794989</v>
+        <v>117.9692003794991</v>
       </c>
       <c r="I13" t="n">
-        <v>49.41291406313608</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.9308534758295</v>
+        <v>129.9308534758297</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>226.7733322206493</v>
       </c>
       <c r="U13" t="n">
-        <v>70.66572395717716</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.0345334132955</v>
+        <v>164.339839212958</v>
       </c>
       <c r="W13" t="n">
-        <v>256.254720734593</v>
+        <v>256.2547207345933</v>
       </c>
       <c r="X13" t="n">
-        <v>229.8864174849433</v>
+        <v>229.8864174849435</v>
       </c>
       <c r="Y13" t="n">
-        <v>212.0940543440544</v>
+        <v>212.0940543440547</v>
       </c>
     </row>
     <row r="14">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>408.9851551450803</v>
+        <v>408.9851551450806</v>
       </c>
       <c r="C14" t="n">
-        <v>420.7096284534326</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>418.4992673423216</v>
+        <v>418.4992673423218</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>382.4562447723395</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>253.9729163065506</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>27.01028645237285</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>243.428564928723</v>
       </c>
       <c r="V14" t="n">
-        <v>248.74430271909</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>401.8996191515041</v>
+        <v>164.4855378640398</v>
       </c>
       <c r="Y14" t="n">
-        <v>391.1518428283647</v>
+        <v>391.151842828365</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H15" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>176.8490128968189</v>
+        <v>176.8490128968191</v>
       </c>
       <c r="C16" t="n">
-        <v>157.7846747666289</v>
+        <v>157.7846747666292</v>
       </c>
       <c r="D16" t="n">
-        <v>151.1677932355142</v>
+        <v>49.93330236653787</v>
       </c>
       <c r="E16" t="n">
-        <v>155.0090040767917</v>
+        <v>155.009004076792</v>
       </c>
       <c r="F16" t="n">
-        <v>161.888563862883</v>
+        <v>161.8885638628832</v>
       </c>
       <c r="G16" t="n">
-        <v>150.0423489486284</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.9692003794989</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>49.41291406313609</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.9308534758295</v>
+        <v>129.9308534758297</v>
       </c>
       <c r="T16" t="n">
-        <v>226.7733322206491</v>
+        <v>226.7733322206493</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>262.5513459967663</v>
       </c>
       <c r="V16" t="n">
-        <v>271.0345334132955</v>
+        <v>271.0345334132957</v>
       </c>
       <c r="W16" t="n">
-        <v>256.254720734593</v>
+        <v>256.2547207345933</v>
       </c>
       <c r="X16" t="n">
-        <v>73.77880922147145</v>
+        <v>229.8864174849435</v>
       </c>
       <c r="Y16" t="n">
-        <v>212.0940543440544</v>
+        <v>212.0940543440547</v>
       </c>
     </row>
     <row r="17">
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>381.1281873479943</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>418.4992673423216</v>
+        <v>418.4992673423218</v>
       </c>
       <c r="E17" t="n">
-        <v>416.3855777583094</v>
+        <v>416.3855777583096</v>
       </c>
       <c r="F17" t="n">
-        <v>410.537335659906</v>
+        <v>410.5373356599062</v>
       </c>
       <c r="G17" t="n">
-        <v>382.4562447723392</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>253.9729163065503</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>27.01028645237265</v>
+        <v>27.01028645237285</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>196.6021193806008</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>387.7554804080989</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>42.04790580981826</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>391.151842828365</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H18" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>176.8490128968189</v>
+        <v>176.8490128968191</v>
       </c>
       <c r="C19" t="n">
-        <v>157.7846747666289</v>
+        <v>157.7846747666292</v>
       </c>
       <c r="D19" t="n">
-        <v>151.1677932355142</v>
+        <v>12.48204139973208</v>
       </c>
       <c r="E19" t="n">
-        <v>155.0090040767917</v>
+        <v>155.009004076792</v>
       </c>
       <c r="F19" t="n">
-        <v>161.888563862883</v>
+        <v>161.8885638628832</v>
       </c>
       <c r="G19" t="n">
-        <v>150.0423489486284</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>117.9692003794989</v>
+        <v>117.9692003794991</v>
       </c>
       <c r="I19" t="n">
-        <v>49.41291406313609</v>
+        <v>49.41291406313628</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>226.7733322206493</v>
       </c>
       <c r="U19" t="n">
-        <v>200.5965774330068</v>
+        <v>262.5513459967663</v>
       </c>
       <c r="V19" t="n">
-        <v>271.0345334132955</v>
+        <v>271.0345334132957</v>
       </c>
       <c r="W19" t="n">
-        <v>256.254720734593</v>
+        <v>256.2547207345933</v>
       </c>
       <c r="X19" t="n">
-        <v>229.8864174849433</v>
+        <v>229.8864174849435</v>
       </c>
       <c r="Y19" t="n">
-        <v>212.0940543440544</v>
+        <v>212.0940543440547</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>408.9851551450803</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>420.7096284534326</v>
+        <v>420.7096284534328</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>418.4992673423218</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>416.3855777583096</v>
       </c>
       <c r="F20" t="n">
-        <v>410.537335659906</v>
+        <v>410.5373356599062</v>
       </c>
       <c r="G20" t="n">
-        <v>382.4562447723392</v>
+        <v>156.8170356641261</v>
       </c>
       <c r="H20" t="n">
-        <v>249.1393223282978</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>27.01028645237264</v>
+        <v>27.01028645237285</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>196.6021193806008</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>243.428564928723</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>391.1518428283647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>176.8490128968189</v>
+        <v>45.90558687903732</v>
       </c>
       <c r="C22" t="n">
-        <v>157.7846747666289</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>151.1677932355142</v>
+        <v>151.1677932355144</v>
       </c>
       <c r="E22" t="n">
-        <v>155.0090040767917</v>
+        <v>155.009004076792</v>
       </c>
       <c r="F22" t="n">
-        <v>161.888563862883</v>
+        <v>161.8885638628832</v>
       </c>
       <c r="G22" t="n">
-        <v>150.0423489486284</v>
+        <v>150.0423489486286</v>
       </c>
       <c r="H22" t="n">
-        <v>117.9692003794989</v>
+        <v>117.9692003794991</v>
       </c>
       <c r="I22" t="n">
-        <v>49.41291406313608</v>
+        <v>49.41291406313629</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>129.9308534758295</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>226.7733322206491</v>
+        <v>226.7733322206493</v>
       </c>
       <c r="U22" t="n">
-        <v>73.77880922147145</v>
+        <v>262.5513459967663</v>
       </c>
       <c r="V22" t="n">
-        <v>271.0345334132955</v>
+        <v>271.0345334132957</v>
       </c>
       <c r="W22" t="n">
-        <v>256.254720734593</v>
+        <v>256.2547207345933</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>229.8864174849435</v>
       </c>
       <c r="Y22" t="n">
-        <v>212.0940543440544</v>
+        <v>212.0940543440547</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>135.6489482260765</v>
+        <v>408.9851551450806</v>
       </c>
       <c r="C23" t="n">
-        <v>420.7096284534326</v>
+        <v>420.7096284534328</v>
       </c>
       <c r="D23" t="n">
-        <v>418.4992673423216</v>
+        <v>418.4992673423218</v>
       </c>
       <c r="E23" t="n">
-        <v>416.3855777583094</v>
+        <v>416.3855777583096</v>
       </c>
       <c r="F23" t="n">
-        <v>410.537335659906</v>
+        <v>410.5373356599062</v>
       </c>
       <c r="G23" t="n">
-        <v>382.4562447723392</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>253.9729163065503</v>
+        <v>8.019780556504827</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>27.01028645237264</v>
+        <v>27.01028645237285</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>196.6021193806008</v>
       </c>
       <c r="U23" t="n">
-        <v>243.4285649287228</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>401.8996191515043</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>176.8490128968189</v>
+        <v>176.8490128968191</v>
       </c>
       <c r="C25" t="n">
-        <v>157.7846747666289</v>
+        <v>157.7846747666292</v>
       </c>
       <c r="D25" t="n">
-        <v>151.1677932355142</v>
+        <v>151.1677932355144</v>
       </c>
       <c r="E25" t="n">
-        <v>155.0090040767917</v>
+        <v>155.009004076792</v>
       </c>
       <c r="F25" t="n">
-        <v>161.888563862883</v>
+        <v>161.8885638628832</v>
       </c>
       <c r="G25" t="n">
-        <v>150.0423489486284</v>
+        <v>150.0423489486286</v>
       </c>
       <c r="H25" t="n">
-        <v>117.9692003794989</v>
+        <v>117.9692003794991</v>
       </c>
       <c r="I25" t="n">
-        <v>49.41291406313608</v>
+        <v>49.41291406313628</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>129.9308534758295</v>
+        <v>129.9308534758297</v>
       </c>
       <c r="T25" t="n">
-        <v>226.7733322206491</v>
+        <v>226.7733322206492</v>
       </c>
       <c r="U25" t="n">
-        <v>262.5513459967657</v>
+        <v>262.5513459967662</v>
       </c>
       <c r="V25" t="n">
-        <v>271.0345334132955</v>
+        <v>271.0345334132957</v>
       </c>
       <c r="W25" t="n">
-        <v>256.254720734593</v>
+        <v>256.2547207345933</v>
       </c>
       <c r="X25" t="n">
-        <v>229.8864174849433</v>
+        <v>229.8864174849435</v>
       </c>
       <c r="Y25" t="n">
-        <v>212.0940543440544</v>
+        <v>212.0940543440547</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
@@ -2566,13 +2566,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>357.3376551819366</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>263.5257695127303</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>142.9822731108076</v>
       </c>
       <c r="T28" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6027656317444</v>
+        <v>275.6027656317441</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2800,10 +2800,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>368.4804559358238</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>272.3367308309393</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3037,13 +3037,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>368.4804559358237</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>189.2693092082937</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3201,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836066</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
         <v>131.0206200144773</v>
@@ -3240,10 +3240,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>239.8247518556274</v>
+        <v>239.824751855628</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6027656317444</v>
+        <v>275.6027656317441</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>116.6395830120779</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>87.20871429050067</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>85.46547451684583</v>
       </c>
       <c r="G37" t="n">
         <v>163.0937685836068</v>
@@ -3444,7 +3444,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>258.9581249460265</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>204.8426041147484</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>222.0215175726359</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3675,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
         <v>131.0206200144773</v>
@@ -3717,16 +3717,16 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>156.4751201966652</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>156.0367594981243</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>103.8693873534169</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>181.2375577414497</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>146.3917356253862</v>
       </c>
       <c r="G43" t="n">
-        <v>85.14888072091732</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,10 +3979,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -3991,7 +3991,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>149.6157531058523</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>215.2165613009018</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>21.713486025812</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>136.0835933007056</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1952.434220775773</v>
+        <v>1153.302122513456</v>
       </c>
       <c r="C11" t="n">
-        <v>1527.47500011574</v>
+        <v>728.3429018534223</v>
       </c>
       <c r="D11" t="n">
-        <v>1104.748467446728</v>
+        <v>305.6163691844104</v>
       </c>
       <c r="E11" t="n">
-        <v>1104.748467446728</v>
+        <v>305.6163691844104</v>
       </c>
       <c r="F11" t="n">
-        <v>690.0642900124797</v>
+        <v>305.6163691844104</v>
       </c>
       <c r="G11" t="n">
-        <v>303.7448508485006</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867021</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M11" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P11" t="n">
         <v>2043.069798152528</v>
@@ -5065,28 +5065,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447736</v>
+        <v>2161.739578073392</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447736</v>
+        <v>1915.85213875145</v>
       </c>
       <c r="V11" t="n">
-        <v>2358.393432039918</v>
+        <v>1566.41844084182</v>
       </c>
       <c r="W11" t="n">
-        <v>2358.393432039918</v>
+        <v>1566.41844084182</v>
       </c>
       <c r="X11" t="n">
-        <v>1952.434220775773</v>
+        <v>1566.41844084182</v>
       </c>
       <c r="Y11" t="n">
-        <v>1952.434220775773</v>
+        <v>1566.41844084182</v>
       </c>
     </row>
     <row r="12">
@@ -5111,25 +5111,25 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
         <v>551.5786779960905</v>
       </c>
       <c r="M12" t="n">
-        <v>803.3877032987878</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1000.009076127825</v>
+        <v>950.0970417206179</v>
       </c>
       <c r="C13" t="n">
-        <v>840.6306167675934</v>
+        <v>790.7185823603863</v>
       </c>
       <c r="D13" t="n">
-        <v>687.9358761256599</v>
+        <v>638.0238417184526</v>
       </c>
       <c r="E13" t="n">
-        <v>531.3611245329409</v>
+        <v>481.4490901257334</v>
       </c>
       <c r="F13" t="n">
-        <v>367.8373226512409</v>
+        <v>317.9252882440333</v>
       </c>
       <c r="G13" t="n">
-        <v>216.2793944203032</v>
+        <v>166.3673600130952</v>
       </c>
       <c r="H13" t="n">
-        <v>97.11858595616289</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J13" t="n">
-        <v>106.1122152511378</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>477.6707703898316</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>1019.75145377609</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M13" t="n">
-        <v>1150.35584611462</v>
+        <v>818.7256495113488</v>
       </c>
       <c r="N13" t="n">
-        <v>1277.854757918509</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O13" t="n">
-        <v>1815.289888492053</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P13" t="n">
-        <v>2263.565838640078</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2229.084291108514</v>
+        <v>2229.084291108515</v>
       </c>
       <c r="T13" t="n">
-        <v>2229.084291108514</v>
+        <v>2000.020319168465</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.70477195985</v>
+        <v>2000.020319168465</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.932515986824</v>
+        <v>1834.020481579618</v>
       </c>
       <c r="W13" t="n">
-        <v>1625.08936372966</v>
+        <v>1575.177329322453</v>
       </c>
       <c r="X13" t="n">
-        <v>1392.880861219616</v>
+        <v>1342.96882681241</v>
       </c>
       <c r="Y13" t="n">
-        <v>1178.644442690268</v>
+        <v>1128.732408283061</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>894.8923048779993</v>
+        <v>1112.790822681492</v>
       </c>
       <c r="C14" t="n">
-        <v>469.9330842179664</v>
+        <v>1112.790822681492</v>
       </c>
       <c r="D14" t="n">
-        <v>47.20655154895472</v>
+        <v>690.0642900124801</v>
       </c>
       <c r="E14" t="n">
-        <v>47.20655154895472</v>
+        <v>690.0642900124801</v>
       </c>
       <c r="F14" t="n">
-        <v>47.20655154895472</v>
+        <v>690.0642900124801</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895472</v>
+        <v>303.7448508485008</v>
       </c>
       <c r="H14" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001358</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J14" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O14" t="n">
         <v>1775.969506973259</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447736</v>
+        <v>2333.044459819077</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447736</v>
+        <v>2333.044459819077</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447736</v>
+        <v>2087.157020497134</v>
       </c>
       <c r="V14" t="n">
-        <v>2109.070706014312</v>
+        <v>2087.157020497134</v>
       </c>
       <c r="W14" t="n">
-        <v>2109.070706014312</v>
+        <v>2087.157020497134</v>
       </c>
       <c r="X14" t="n">
-        <v>1703.111494750166</v>
+        <v>1921.010012553659</v>
       </c>
       <c r="Y14" t="n">
-        <v>1308.008623206363</v>
+        <v>1525.907141009856</v>
       </c>
     </row>
     <row r="15">
@@ -5336,7 +5336,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
         <v>341.0245550495863</v>
@@ -5354,19 +5354,19 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043082</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J15" t="n">
-        <v>175.3166270668979</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210685</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960912</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M15" t="n">
-        <v>803.3877032987884</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1000.009076127825</v>
+        <v>577.1212435417247</v>
       </c>
       <c r="C16" t="n">
-        <v>840.6306167675934</v>
+        <v>417.7427841814932</v>
       </c>
       <c r="D16" t="n">
-        <v>687.9358761256599</v>
+        <v>367.3051050233741</v>
       </c>
       <c r="E16" t="n">
-        <v>531.3611245329409</v>
+        <v>210.7303534306549</v>
       </c>
       <c r="F16" t="n">
-        <v>367.8373226512409</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G16" t="n">
-        <v>216.2793944203032</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H16" t="n">
-        <v>97.11858595616289</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I16" t="n">
         <v>47.20655154895472</v>
@@ -5442,16 +5442,16 @@
         <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>481.9462364092376</v>
+        <v>744.9929992049549</v>
       </c>
       <c r="M16" t="n">
-        <v>1066.127311827552</v>
+        <v>875.5973915434845</v>
       </c>
       <c r="N16" t="n">
-        <v>1635.885026789086</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O16" t="n">
-        <v>2173.32015736263</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P16" t="n">
         <v>2274.089213540313</v>
@@ -5469,19 +5469,19 @@
         <v>2000.020319168465</v>
       </c>
       <c r="U16" t="n">
-        <v>2000.020319168465</v>
+        <v>1734.816939373751</v>
       </c>
       <c r="V16" t="n">
-        <v>1726.248063195439</v>
+        <v>1461.044683400725</v>
       </c>
       <c r="W16" t="n">
-        <v>1467.404910938274</v>
+        <v>1202.20153114356</v>
       </c>
       <c r="X16" t="n">
-        <v>1392.880861219616</v>
+        <v>969.9930286335164</v>
       </c>
       <c r="Y16" t="n">
-        <v>1178.644442690268</v>
+        <v>755.7566101041682</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2333.044459819077</v>
+        <v>1305.208754337377</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.066492800901</v>
+        <v>1305.208754337377</v>
       </c>
       <c r="D17" t="n">
-        <v>1525.339960131889</v>
+        <v>882.4822216683647</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.748467446728</v>
+        <v>461.8907289832035</v>
       </c>
       <c r="F17" t="n">
-        <v>690.0642900124797</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G17" t="n">
-        <v>303.7448508485006</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H17" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K17" t="n">
         <v>512.3249274228014</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M17" t="n">
         <v>1131.588690455489</v>
@@ -5545,22 +5545,22 @@
         <v>2333.044459819077</v>
       </c>
       <c r="T17" t="n">
-        <v>2333.044459819077</v>
+        <v>2134.456460444732</v>
       </c>
       <c r="U17" t="n">
-        <v>2333.044459819077</v>
+        <v>2134.456460444732</v>
       </c>
       <c r="V17" t="n">
-        <v>2333.044459819077</v>
+        <v>2134.456460444732</v>
       </c>
       <c r="W17" t="n">
-        <v>2333.044459819077</v>
+        <v>1742.784258012309</v>
       </c>
       <c r="X17" t="n">
-        <v>2333.044459819077</v>
+        <v>1700.31162588118</v>
       </c>
       <c r="Y17" t="n">
-        <v>2333.044459819077</v>
+        <v>1305.208754337377</v>
       </c>
     </row>
     <row r="18">
@@ -5573,7 +5573,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
         <v>341.0245550495863</v>
@@ -5591,19 +5591,19 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043167</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J18" t="n">
-        <v>175.3166270668988</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210689</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960912</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M18" t="n">
-        <v>803.3877032987884</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5649,43 +5649,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1000.009076127825</v>
+        <v>708.3645298809465</v>
       </c>
       <c r="C19" t="n">
-        <v>840.6306167675934</v>
+        <v>548.986070520715</v>
       </c>
       <c r="D19" t="n">
-        <v>687.9358761256599</v>
+        <v>536.377947894723</v>
       </c>
       <c r="E19" t="n">
-        <v>531.3611245329409</v>
+        <v>379.8031963020038</v>
       </c>
       <c r="F19" t="n">
-        <v>367.8373226512409</v>
+        <v>216.2793944203036</v>
       </c>
       <c r="G19" t="n">
-        <v>216.2793944203032</v>
+        <v>216.2793944203036</v>
       </c>
       <c r="H19" t="n">
-        <v>97.11858595616289</v>
+        <v>97.11858595616309</v>
       </c>
       <c r="I19" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="J19" t="n">
-        <v>106.1122152511378</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K19" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L19" t="n">
-        <v>326.7831174369939</v>
+        <v>733.422710770687</v>
       </c>
       <c r="M19" t="n">
-        <v>897.93453696322</v>
+        <v>1317.603786189002</v>
       </c>
       <c r="N19" t="n">
-        <v>1467.692251924754</v>
+        <v>1887.361501150536</v>
       </c>
       <c r="O19" t="n">
         <v>2005.127382498297</v>
@@ -5703,22 +5703,22 @@
         <v>2360.327577447736</v>
       </c>
       <c r="T19" t="n">
-        <v>2360.327577447736</v>
+        <v>2131.263605507686</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.70477195985</v>
+        <v>1866.060225712973</v>
       </c>
       <c r="V19" t="n">
-        <v>1883.932515986824</v>
+        <v>1592.287969739947</v>
       </c>
       <c r="W19" t="n">
-        <v>1625.08936372966</v>
+        <v>1333.444817482782</v>
       </c>
       <c r="X19" t="n">
-        <v>1392.880861219616</v>
+        <v>1101.236314972738</v>
       </c>
       <c r="Y19" t="n">
-        <v>1178.644442690268</v>
+        <v>886.9998964433901</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1524.82526994691</v>
+        <v>1888.56902112279</v>
       </c>
       <c r="C20" t="n">
-        <v>1099.866049286877</v>
+        <v>1463.609800462757</v>
       </c>
       <c r="D20" t="n">
-        <v>1099.866049286877</v>
+        <v>1040.883267793745</v>
       </c>
       <c r="E20" t="n">
-        <v>1099.866049286877</v>
+        <v>620.2917751085834</v>
       </c>
       <c r="F20" t="n">
-        <v>685.1818718526285</v>
+        <v>205.6075976743346</v>
       </c>
       <c r="G20" t="n">
-        <v>298.8624326886495</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H20" t="n">
         <v>47.20655154895472</v>
@@ -5782,22 +5782,22 @@
         <v>2333.044459819077</v>
       </c>
       <c r="T20" t="n">
-        <v>2333.044459819077</v>
+        <v>2134.456460444732</v>
       </c>
       <c r="U20" t="n">
-        <v>2333.044459819077</v>
+        <v>1888.56902112279</v>
       </c>
       <c r="V20" t="n">
-        <v>2333.044459819077</v>
+        <v>1888.56902112279</v>
       </c>
       <c r="W20" t="n">
-        <v>2333.044459819077</v>
+        <v>1888.56902112279</v>
       </c>
       <c r="X20" t="n">
-        <v>2333.044459819077</v>
+        <v>1888.56902112279</v>
       </c>
       <c r="Y20" t="n">
-        <v>1937.941588275274</v>
+        <v>1888.56902112279</v>
       </c>
     </row>
     <row r="21">
@@ -5831,16 +5831,16 @@
         <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M21" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1000.009076127825</v>
+        <v>840.6306167675948</v>
       </c>
       <c r="C22" t="n">
-        <v>840.6306167675934</v>
+        <v>840.6306167675948</v>
       </c>
       <c r="D22" t="n">
-        <v>687.9358761256599</v>
+        <v>687.935876125661</v>
       </c>
       <c r="E22" t="n">
-        <v>531.3611245329409</v>
+        <v>531.3611245329419</v>
       </c>
       <c r="F22" t="n">
-        <v>367.8373226512409</v>
+        <v>367.8373226512416</v>
       </c>
       <c r="G22" t="n">
-        <v>216.2793944203032</v>
+        <v>216.2793944203036</v>
       </c>
       <c r="H22" t="n">
-        <v>97.11858595616289</v>
+        <v>97.1185859561631</v>
       </c>
       <c r="I22" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="J22" t="n">
-        <v>106.1122152511378</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K22" t="n">
-        <v>202.912315818696</v>
+        <v>358.0754347909393</v>
       </c>
       <c r="L22" t="n">
-        <v>326.7831174369939</v>
+        <v>481.9462364092371</v>
       </c>
       <c r="M22" t="n">
-        <v>910.9641928553085</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N22" t="n">
-        <v>1288.378132818744</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O22" t="n">
-        <v>1825.813263392288</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P22" t="n">
         <v>2274.089213540313</v>
@@ -5937,25 +5937,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S22" t="n">
-        <v>2229.084291108514</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T22" t="n">
-        <v>2000.020319168465</v>
+        <v>2131.263605507686</v>
       </c>
       <c r="U22" t="n">
-        <v>1925.496269449807</v>
+        <v>1866.060225712973</v>
       </c>
       <c r="V22" t="n">
-        <v>1651.724013476781</v>
+        <v>1592.287969739947</v>
       </c>
       <c r="W22" t="n">
-        <v>1392.880861219616</v>
+        <v>1333.444817482782</v>
       </c>
       <c r="X22" t="n">
-        <v>1392.880861219616</v>
+        <v>1101.236314972738</v>
       </c>
       <c r="Y22" t="n">
-        <v>1178.644442690268</v>
+        <v>886.9998964433901</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2381.656077391262</v>
+        <v>1746.899127368652</v>
       </c>
       <c r="C23" t="n">
-        <v>1956.696856731229</v>
+        <v>1321.939906708619</v>
       </c>
       <c r="D23" t="n">
-        <v>1533.970324062218</v>
+        <v>899.2133740396073</v>
       </c>
       <c r="E23" t="n">
-        <v>1113.378831377057</v>
+        <v>478.621881354446</v>
       </c>
       <c r="F23" t="n">
-        <v>698.6946539428081</v>
+        <v>63.93770392019729</v>
       </c>
       <c r="G23" t="n">
-        <v>312.3752147788291</v>
+        <v>63.93770392019729</v>
       </c>
       <c r="H23" t="n">
-        <v>55.83691547928326</v>
+        <v>55.83691547928333</v>
       </c>
       <c r="I23" t="n">
-        <v>127.0368657304638</v>
+        <v>127.0368657304639</v>
       </c>
       <c r="J23" t="n">
-        <v>284.6836409739091</v>
+        <v>284.6836409739092</v>
       </c>
       <c r="K23" t="n">
-        <v>520.95529135313</v>
+        <v>545.9771697470009</v>
       </c>
       <c r="L23" t="n">
-        <v>814.0711662170306</v>
+        <v>1236.958998803132</v>
       </c>
       <c r="M23" t="n">
-        <v>1140.219054385818</v>
+        <v>1563.106886971919</v>
       </c>
       <c r="N23" t="n">
-        <v>1471.644356362295</v>
+        <v>1894.532188948396</v>
       </c>
       <c r="O23" t="n">
-        <v>1784.599870903588</v>
+        <v>2207.487703489689</v>
       </c>
       <c r="P23" t="n">
-        <v>2051.700162082857</v>
+        <v>2474.587994668958</v>
       </c>
       <c r="Q23" t="n">
-        <v>2675.169189680023</v>
+        <v>2675.169189680026</v>
       </c>
       <c r="R23" t="n">
-        <v>2791.845773964163</v>
+        <v>2791.845773964166</v>
       </c>
       <c r="S23" t="n">
-        <v>2764.562656335504</v>
+        <v>2764.562656335507</v>
       </c>
       <c r="T23" t="n">
-        <v>2764.562656335504</v>
+        <v>2565.974656961163</v>
       </c>
       <c r="U23" t="n">
-        <v>2518.675217013562</v>
+        <v>2565.974656961163</v>
       </c>
       <c r="V23" t="n">
-        <v>2518.675217013562</v>
+        <v>2565.974656961163</v>
       </c>
       <c r="W23" t="n">
-        <v>2518.675217013562</v>
+        <v>2565.974656961163</v>
       </c>
       <c r="X23" t="n">
-        <v>2518.675217013562</v>
+        <v>2160.015445697017</v>
       </c>
       <c r="Y23" t="n">
-        <v>2518.675217013562</v>
+        <v>2160.015445697017</v>
       </c>
     </row>
     <row r="24">
@@ -6059,25 +6059,25 @@
         <v>172.1506659230301</v>
       </c>
       <c r="G24" t="n">
-        <v>87.77956551268701</v>
+        <v>87.77956551268709</v>
       </c>
       <c r="H24" t="n">
-        <v>55.83691547928326</v>
+        <v>55.83691547928333</v>
       </c>
       <c r="I24" t="n">
-        <v>90.05365165075938</v>
+        <v>90.05365165075943</v>
       </c>
       <c r="J24" t="n">
-        <v>183.9469909972268</v>
+        <v>183.9469909972265</v>
       </c>
       <c r="K24" t="n">
-        <v>344.425663051397</v>
+        <v>344.4256630513968</v>
       </c>
       <c r="L24" t="n">
-        <v>560.2090419264192</v>
+        <v>560.209041926419</v>
       </c>
       <c r="M24" t="n">
-        <v>812.0180672291167</v>
+        <v>812.0180672291165</v>
       </c>
       <c r="N24" t="n">
         <v>1070.491728150437</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1008.639440058153</v>
+        <v>1008.639440058155</v>
       </c>
       <c r="C25" t="n">
-        <v>849.2609806979219</v>
+        <v>849.2609806979234</v>
       </c>
       <c r="D25" t="n">
-        <v>696.5662400559884</v>
+        <v>696.5662400559896</v>
       </c>
       <c r="E25" t="n">
-        <v>539.9914884632694</v>
+        <v>539.9914884632705</v>
       </c>
       <c r="F25" t="n">
-        <v>376.4676865815695</v>
+        <v>376.4676865815702</v>
       </c>
       <c r="G25" t="n">
-        <v>224.9097583506317</v>
+        <v>224.9097583506322</v>
       </c>
       <c r="H25" t="n">
-        <v>105.7489498864914</v>
+        <v>105.7489498864917</v>
       </c>
       <c r="I25" t="n">
-        <v>55.83691547928326</v>
+        <v>55.83691547928333</v>
       </c>
       <c r="J25" t="n">
-        <v>201.3222643461562</v>
+        <v>114.7425791814665</v>
       </c>
       <c r="K25" t="n">
-        <v>572.88081948485</v>
+        <v>211.5426797490246</v>
       </c>
       <c r="L25" t="n">
-        <v>1114.961502871109</v>
+        <v>391.8575799898656</v>
       </c>
       <c r="M25" t="n">
-        <v>1245.565895209638</v>
+        <v>981.945839509308</v>
       </c>
       <c r="N25" t="n">
-        <v>1551.703554470839</v>
+        <v>1551.703554470842</v>
       </c>
       <c r="O25" t="n">
-        <v>2089.138685044383</v>
+        <v>2089.138685044386</v>
       </c>
       <c r="P25" t="n">
-        <v>2537.414635192408</v>
+        <v>2537.414635192411</v>
       </c>
       <c r="Q25" t="n">
-        <v>2775.374681287396</v>
+        <v>2775.374681287399</v>
       </c>
       <c r="R25" t="n">
-        <v>2791.845773964163</v>
+        <v>2791.845773964166</v>
       </c>
       <c r="S25" t="n">
-        <v>2660.602487624941</v>
+        <v>2660.602487624944</v>
       </c>
       <c r="T25" t="n">
-        <v>2431.538515684892</v>
+        <v>2431.538515684895</v>
       </c>
       <c r="U25" t="n">
-        <v>2166.335135890179</v>
+        <v>2166.335135890181</v>
       </c>
       <c r="V25" t="n">
-        <v>1892.562879917153</v>
+        <v>1892.562879917155</v>
       </c>
       <c r="W25" t="n">
-        <v>1633.719727659988</v>
+        <v>1633.719727659991</v>
       </c>
       <c r="X25" t="n">
-        <v>1401.511225149944</v>
+        <v>1401.511225149947</v>
       </c>
       <c r="Y25" t="n">
-        <v>1187.274806620597</v>
+        <v>1187.274806620598</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1290.504261028621</v>
+        <v>2065.288588445679</v>
       </c>
       <c r="C26" t="n">
-        <v>1290.504261028621</v>
+        <v>1627.146115629102</v>
       </c>
       <c r="D26" t="n">
-        <v>854.5944762030654</v>
+        <v>1191.236330803547</v>
       </c>
       <c r="E26" t="n">
-        <v>420.8197313613605</v>
+        <v>757.4615859618418</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8197313613605</v>
+        <v>329.5941563710495</v>
       </c>
       <c r="G26" t="n">
-        <v>59.87260491495994</v>
+        <v>329.5941563710495</v>
       </c>
       <c r="H26" t="n">
-        <v>59.87260491495994</v>
+        <v>59.87260491495993</v>
       </c>
       <c r="I26" t="n">
         <v>131.0725551661405</v>
       </c>
       <c r="J26" t="n">
-        <v>288.7193304095858</v>
+        <v>369.0136545322794</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6659200112765</v>
+        <v>605.2853049115002</v>
       </c>
       <c r="L26" t="n">
-        <v>1269.589405833906</v>
+        <v>898.4011797754008</v>
       </c>
       <c r="M26" t="n">
-        <v>1595.737294002693</v>
+        <v>1224.549067944188</v>
       </c>
       <c r="N26" t="n">
-        <v>1927.16259597917</v>
+        <v>1555.974369920665</v>
       </c>
       <c r="O26" t="n">
-        <v>2240.118110520463</v>
+        <v>1868.929884461958</v>
       </c>
       <c r="P26" t="n">
-        <v>2507.218401699732</v>
+        <v>2136.030175641227</v>
       </c>
       <c r="Q26" t="n">
-        <v>2707.7995967108</v>
+        <v>2876.953661463856</v>
       </c>
       <c r="R26" t="n">
-        <v>2993.630245747997</v>
+        <v>2993.630245747996</v>
       </c>
       <c r="S26" t="n">
-        <v>2993.630245747997</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="T26" t="n">
-        <v>2781.858994217109</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="U26" t="n">
-        <v>2522.788302738623</v>
+        <v>2694.093184484308</v>
       </c>
       <c r="V26" t="n">
-        <v>2522.788302738623</v>
+        <v>2331.476234418134</v>
       </c>
       <c r="W26" t="n">
-        <v>2117.932848149657</v>
+        <v>2065.288588445679</v>
       </c>
       <c r="X26" t="n">
-        <v>1698.790384728968</v>
+        <v>2065.288588445679</v>
       </c>
       <c r="Y26" t="n">
-        <v>1290.504261028621</v>
+        <v>2065.288588445679</v>
       </c>
     </row>
     <row r="27">
@@ -6296,16 +6296,16 @@
         <v>176.1863553587068</v>
       </c>
       <c r="G27" t="n">
-        <v>91.81525494836369</v>
+        <v>91.81525494836367</v>
       </c>
       <c r="H27" t="n">
-        <v>59.87260491495994</v>
+        <v>59.87260491495993</v>
       </c>
       <c r="I27" t="n">
         <v>94.08934108643605</v>
       </c>
       <c r="J27" t="n">
-        <v>187.9826804329034</v>
+        <v>187.9826804329032</v>
       </c>
       <c r="K27" t="n">
         <v>348.4613524870736</v>
@@ -6363,7 +6363,7 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C28" t="n">
-        <v>932.3961830728613</v>
+        <v>932.3961830728614</v>
       </c>
       <c r="D28" t="n">
         <v>766.5181902743841</v>
@@ -6372,7 +6372,7 @@
         <v>596.7601865251213</v>
       </c>
       <c r="F28" t="n">
-        <v>420.0531324868775</v>
+        <v>420.0531324868776</v>
       </c>
       <c r="G28" t="n">
         <v>255.311952099396</v>
@@ -6381,37 +6381,37 @@
         <v>122.9678914787119</v>
       </c>
       <c r="I28" t="n">
-        <v>59.87260491495994</v>
+        <v>59.87260491495993</v>
       </c>
       <c r="J28" t="n">
         <v>118.778268617143</v>
       </c>
       <c r="K28" t="n">
-        <v>219.75414325177</v>
+        <v>215.5783691847012</v>
       </c>
       <c r="L28" t="n">
-        <v>761.8348266380289</v>
+        <v>757.6590525709602</v>
       </c>
       <c r="M28" t="n">
-        <v>1351.923086157471</v>
+        <v>1347.747312090403</v>
       </c>
       <c r="N28" t="n">
-        <v>1921.680801119006</v>
+        <v>1917.505027051937</v>
       </c>
       <c r="O28" t="n">
-        <v>2459.115931692549</v>
+        <v>2454.94015762548</v>
       </c>
       <c r="P28" t="n">
-        <v>2907.391881840574</v>
+        <v>2903.216107773505</v>
       </c>
       <c r="Q28" t="n">
         <v>2977.159153071229</v>
       </c>
       <c r="R28" t="n">
-        <v>2993.630245747997</v>
+        <v>2993.630245747996</v>
       </c>
       <c r="S28" t="n">
-        <v>2849.203707252232</v>
+        <v>2849.203707252231</v>
       </c>
       <c r="T28" t="n">
         <v>2606.956483155638</v>
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1739.902088142053</v>
+        <v>1361.792292147884</v>
       </c>
       <c r="C29" t="n">
-        <v>1301.759615325477</v>
+        <v>923.6498193313078</v>
       </c>
       <c r="D29" t="n">
-        <v>865.8498304999212</v>
+        <v>487.7400345057522</v>
       </c>
       <c r="E29" t="n">
-        <v>432.0750856582163</v>
+        <v>487.7400345057522</v>
       </c>
       <c r="F29" t="n">
-        <v>59.87260491495994</v>
+        <v>59.87260491495993</v>
       </c>
       <c r="G29" t="n">
-        <v>59.87260491495994</v>
+        <v>59.87260491495993</v>
       </c>
       <c r="H29" t="n">
-        <v>59.87260491495994</v>
+        <v>59.87260491495993</v>
       </c>
       <c r="I29" t="n">
         <v>131.0725551661405</v>
       </c>
       <c r="J29" t="n">
-        <v>723.9740178625037</v>
+        <v>288.7193304095858</v>
       </c>
       <c r="K29" t="n">
-        <v>960.2456682417246</v>
+        <v>524.9909807888066</v>
       </c>
       <c r="L29" t="n">
-        <v>1253.361543105625</v>
+        <v>1010.775499305626</v>
       </c>
       <c r="M29" t="n">
-        <v>1579.509431274412</v>
+        <v>1336.923387474413</v>
       </c>
       <c r="N29" t="n">
-        <v>1910.93473325089</v>
+        <v>1668.348689450891</v>
       </c>
       <c r="O29" t="n">
-        <v>2223.890247792182</v>
+        <v>2409.272175273519</v>
       </c>
       <c r="P29" t="n">
-        <v>2490.990538971451</v>
+        <v>2676.372466452789</v>
       </c>
       <c r="Q29" t="n">
-        <v>2707.7995967108</v>
+        <v>2876.953661463856</v>
       </c>
       <c r="R29" t="n">
-        <v>2993.630245747997</v>
+        <v>2993.630245747996</v>
       </c>
       <c r="S29" t="n">
-        <v>2993.630245747997</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="T29" t="n">
-        <v>2993.630245747997</v>
+        <v>2741.392624431906</v>
       </c>
       <c r="U29" t="n">
-        <v>2993.630245747997</v>
+        <v>2482.32193295342</v>
       </c>
       <c r="V29" t="n">
-        <v>2993.630245747997</v>
+        <v>2482.32193295342</v>
       </c>
       <c r="W29" t="n">
-        <v>2993.630245747997</v>
+        <v>2207.234326053481</v>
       </c>
       <c r="X29" t="n">
-        <v>2574.487782327308</v>
+        <v>1788.091862632792</v>
       </c>
       <c r="Y29" t="n">
-        <v>2166.201658626961</v>
+        <v>1788.091862632792</v>
       </c>
     </row>
     <row r="30">
@@ -6533,16 +6533,16 @@
         <v>176.1863553587068</v>
       </c>
       <c r="G30" t="n">
-        <v>91.81525494836369</v>
+        <v>91.81525494836367</v>
       </c>
       <c r="H30" t="n">
-        <v>59.87260491495994</v>
+        <v>59.87260491495993</v>
       </c>
       <c r="I30" t="n">
         <v>94.08934108643605</v>
       </c>
       <c r="J30" t="n">
-        <v>187.9826804329032</v>
+        <v>187.9826804329034</v>
       </c>
       <c r="K30" t="n">
         <v>348.4613524870736</v>
@@ -6609,46 +6609,46 @@
         <v>596.7601865251213</v>
       </c>
       <c r="F31" t="n">
-        <v>420.0531324868775</v>
+        <v>420.0531324868776</v>
       </c>
       <c r="G31" t="n">
         <v>255.311952099396</v>
       </c>
       <c r="H31" t="n">
-        <v>122.9678914787117</v>
+        <v>122.9678914787119</v>
       </c>
       <c r="I31" t="n">
-        <v>59.87260491495994</v>
+        <v>59.87260491495993</v>
       </c>
       <c r="J31" t="n">
         <v>118.778268617143</v>
       </c>
       <c r="K31" t="n">
-        <v>219.75414325177</v>
+        <v>219.7541432517691</v>
       </c>
       <c r="L31" t="n">
-        <v>761.8348266380289</v>
+        <v>761.8348266380279</v>
       </c>
       <c r="M31" t="n">
-        <v>1351.923086157471</v>
+        <v>1351.92308615747</v>
       </c>
       <c r="N31" t="n">
-        <v>1921.680801119006</v>
+        <v>1921.680801119005</v>
       </c>
       <c r="O31" t="n">
-        <v>2459.115931692549</v>
+        <v>2459.115931692548</v>
       </c>
       <c r="P31" t="n">
-        <v>2907.391881840574</v>
+        <v>2907.391881840573</v>
       </c>
       <c r="Q31" t="n">
         <v>2977.159153071229</v>
       </c>
       <c r="R31" t="n">
-        <v>2993.630245747997</v>
+        <v>2993.630245747996</v>
       </c>
       <c r="S31" t="n">
-        <v>2849.203707252232</v>
+        <v>2849.203707252231</v>
       </c>
       <c r="T31" t="n">
         <v>2606.956483155638</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1367.699607398797</v>
+        <v>1761.294983468407</v>
       </c>
       <c r="C32" t="n">
-        <v>929.5571345822202</v>
+        <v>1323.152510651831</v>
       </c>
       <c r="D32" t="n">
-        <v>493.6473497566648</v>
+        <v>887.2427258262751</v>
       </c>
       <c r="E32" t="n">
-        <v>59.87260491495994</v>
+        <v>887.2427258262751</v>
       </c>
       <c r="F32" t="n">
-        <v>59.87260491495994</v>
+        <v>459.3752962354828</v>
       </c>
       <c r="G32" t="n">
         <v>59.87260491495994</v>
@@ -6718,34 +6718,34 @@
         <v>1788.635560339264</v>
       </c>
       <c r="P32" t="n">
-        <v>2507.218401699732</v>
+        <v>2529.559046161894</v>
       </c>
       <c r="Q32" t="n">
-        <v>2707.7995967108</v>
+        <v>2876.953661463856</v>
       </c>
       <c r="R32" t="n">
         <v>2993.630245747997</v>
       </c>
       <c r="S32" t="n">
-        <v>2993.630245747997</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="T32" t="n">
-        <v>2993.630245747997</v>
+        <v>2741.392624431906</v>
       </c>
       <c r="U32" t="n">
-        <v>2993.630245747997</v>
+        <v>2741.392624431906</v>
       </c>
       <c r="V32" t="n">
-        <v>2993.630245747997</v>
+        <v>2378.775674365733</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.427765004741</v>
+        <v>2378.775674365733</v>
       </c>
       <c r="X32" t="n">
-        <v>2202.285301584051</v>
+        <v>2187.594553953315</v>
       </c>
       <c r="Y32" t="n">
-        <v>1793.999177883705</v>
+        <v>2187.594553953315</v>
       </c>
     </row>
     <row r="33">
@@ -6779,13 +6779,13 @@
         <v>94.08934108643605</v>
       </c>
       <c r="J33" t="n">
-        <v>187.9826804329034</v>
+        <v>187.9826804329032</v>
       </c>
       <c r="K33" t="n">
-        <v>348.4613524870736</v>
+        <v>348.4613524870733</v>
       </c>
       <c r="L33" t="n">
-        <v>564.2447313620959</v>
+        <v>564.2447313620956</v>
       </c>
       <c r="M33" t="n">
         <v>816.0537566647932</v>
@@ -6837,19 +6837,19 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C34" t="n">
-        <v>932.3961830728613</v>
+        <v>932.3961830728615</v>
       </c>
       <c r="D34" t="n">
-        <v>766.518190274384</v>
+        <v>766.5181902743842</v>
       </c>
       <c r="E34" t="n">
-        <v>596.7601865251213</v>
+        <v>596.7601865251215</v>
       </c>
       <c r="F34" t="n">
-        <v>420.0531324868774</v>
+        <v>420.0531324868778</v>
       </c>
       <c r="G34" t="n">
-        <v>255.311952099396</v>
+        <v>255.3119520993962</v>
       </c>
       <c r="H34" t="n">
         <v>122.9678914787119</v>
@@ -6858,25 +6858,25 @@
         <v>59.87260491495994</v>
       </c>
       <c r="J34" t="n">
-        <v>118.778268617143</v>
+        <v>205.3579537818329</v>
       </c>
       <c r="K34" t="n">
-        <v>215.5783691847012</v>
+        <v>576.9165089205267</v>
       </c>
       <c r="L34" t="n">
-        <v>757.6590525709602</v>
+        <v>1118.997192306786</v>
       </c>
       <c r="M34" t="n">
-        <v>1347.747312090403</v>
+        <v>1249.601584645315</v>
       </c>
       <c r="N34" t="n">
-        <v>1917.505027051937</v>
+        <v>1753.488026254673</v>
       </c>
       <c r="O34" t="n">
-        <v>2454.94015762548</v>
+        <v>2290.923156828216</v>
       </c>
       <c r="P34" t="n">
-        <v>2903.216107773505</v>
+        <v>2739.199106976242</v>
       </c>
       <c r="Q34" t="n">
         <v>2977.159153071229</v>
@@ -6885,7 +6885,7 @@
         <v>2993.630245747997</v>
       </c>
       <c r="S34" t="n">
-        <v>2849.203707252231</v>
+        <v>2849.203707252232</v>
       </c>
       <c r="T34" t="n">
         <v>2606.956483155638</v>
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1276.934931057771</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C35" t="n">
-        <v>838.7924582411943</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D35" t="n">
-        <v>838.7924582411943</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E35" t="n">
-        <v>405.0177133994894</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F35" t="n">
-        <v>405.0177133994894</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G35" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I35" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435801</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K35" t="n">
-        <v>512.324927422801</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867016</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M35" t="n">
         <v>1131.588690455489</v>
@@ -6961,28 +6961,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T35" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U35" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V35" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W35" t="n">
-        <v>1703.234501542679</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X35" t="n">
-        <v>1703.234501542679</v>
+        <v>1900.718744241844</v>
       </c>
       <c r="Y35" t="n">
-        <v>1703.234501542679</v>
+        <v>1900.718744241844</v>
       </c>
     </row>
     <row r="36">
@@ -6995,7 +6995,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D36" t="n">
         <v>341.0245550495863</v>
@@ -7010,16 +7010,16 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043098</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J36" t="n">
         <v>175.3166270668981</v>
       </c>
       <c r="K36" t="n">
-        <v>335.7952991210685</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L36" t="n">
         <v>551.5786779960906</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>922.5338374743685</v>
+        <v>663.4738450083632</v>
       </c>
       <c r="C37" t="n">
-        <v>749.9721259575934</v>
+        <v>663.4738450083632</v>
       </c>
       <c r="D37" t="n">
-        <v>584.0941331591162</v>
+        <v>663.4738450083632</v>
       </c>
       <c r="E37" t="n">
-        <v>584.0941331591162</v>
+        <v>493.7158412591005</v>
       </c>
       <c r="F37" t="n">
         <v>407.3870791208724</v>
@@ -7092,7 +7092,7 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J37" t="n">
         <v>106.1122152511378</v>
@@ -7101,46 +7101,46 @@
         <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>419.8232506543489</v>
+        <v>744.9929992049549</v>
       </c>
       <c r="M37" t="n">
-        <v>550.4276429928783</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N37" t="n">
-        <v>1120.185357954412</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O37" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R37" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
         <v>2215.901038951971</v>
       </c>
       <c r="T37" t="n">
-        <v>2215.901038951971</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U37" t="n">
-        <v>1954.327175370126</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V37" t="n">
-        <v>1667.371667240556</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W37" t="n">
-        <v>1395.345262826848</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X37" t="n">
-        <v>1149.95350816026</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.5338374743685</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>47.20655154895472</v>
+        <v>1624.755105488881</v>
       </c>
       <c r="C38" t="n">
-        <v>47.20655154895472</v>
+        <v>1186.612632672305</v>
       </c>
       <c r="D38" t="n">
-        <v>47.20655154895472</v>
+        <v>750.7028478467491</v>
       </c>
       <c r="E38" t="n">
-        <v>47.20655154895472</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F38" t="n">
-        <v>47.20655154895472</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895472</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I38" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K38" t="n">
         <v>512.3249274228015</v>
@@ -7198,10 +7198,10 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
         <v>2108.089956131646</v>
@@ -7210,16 +7210,16 @@
         <v>1849.01926465316</v>
       </c>
       <c r="V38" t="n">
-        <v>1486.402314586986</v>
+        <v>1624.755105488881</v>
       </c>
       <c r="W38" t="n">
-        <v>1081.546859998019</v>
+        <v>1624.755105488881</v>
       </c>
       <c r="X38" t="n">
-        <v>662.40439657733</v>
+        <v>1624.755105488881</v>
       </c>
       <c r="Y38" t="n">
-        <v>254.1182728769834</v>
+        <v>1624.755105488881</v>
       </c>
     </row>
     <row r="39">
@@ -7247,7 +7247,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I39" t="n">
         <v>81.42328772043084</v>
@@ -7308,55 +7308,55 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>864.4553742723976</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C40" t="n">
-        <v>691.8936627556226</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D40" t="n">
-        <v>526.0156699571453</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E40" t="n">
-        <v>356.2576662078826</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F40" t="n">
-        <v>179.5506121696388</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G40" t="n">
         <v>179.5506121696388</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J40" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K40" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>1106.33113894078</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M40" t="n">
-        <v>1412.355695376305</v>
+        <v>910.9641928553087</v>
       </c>
       <c r="N40" t="n">
-        <v>1539.854607180194</v>
+        <v>1480.721907816843</v>
       </c>
       <c r="O40" t="n">
-        <v>1657.620488527956</v>
+        <v>2018.157038390386</v>
       </c>
       <c r="P40" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
         <v>2215.901038951971</v>
@@ -7365,19 +7365,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U40" t="n">
-        <v>1973.653814855378</v>
+        <v>1815.598137889049</v>
       </c>
       <c r="V40" t="n">
-        <v>1686.698306725808</v>
+        <v>1528.642629759479</v>
       </c>
       <c r="W40" t="n">
-        <v>1529.085418343864</v>
+        <v>1256.616225345771</v>
       </c>
       <c r="X40" t="n">
-        <v>1283.693663677277</v>
+        <v>1256.616225345771</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.273992991385</v>
+        <v>1029.196554659879</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1355.033554032792</v>
+        <v>821.3493674098266</v>
       </c>
       <c r="C41" t="n">
-        <v>916.8910812162151</v>
+        <v>821.3493674098266</v>
       </c>
       <c r="D41" t="n">
-        <v>480.9812963906596</v>
+        <v>821.3493674098266</v>
       </c>
       <c r="E41" t="n">
-        <v>47.20655154895472</v>
+        <v>821.3493674098266</v>
       </c>
       <c r="F41" t="n">
-        <v>47.20655154895472</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895472</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I41" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228011</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867018</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M41" t="n">
         <v>1131.588690455489</v>
@@ -7435,28 +7435,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U41" t="n">
-        <v>2319.861207662533</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V41" t="n">
-        <v>1957.24425759636</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W41" t="n">
-        <v>1774.176017453481</v>
+        <v>1655.935061595081</v>
       </c>
       <c r="X41" t="n">
-        <v>1355.033554032792</v>
+        <v>1655.935061595081</v>
       </c>
       <c r="Y41" t="n">
-        <v>1355.033554032792</v>
+        <v>1247.648937894734</v>
       </c>
     </row>
     <row r="42">
@@ -7484,13 +7484,13 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J42" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K42" t="n">
         <v>335.7952991210683</v>
@@ -7545,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>471.6552262893761</v>
+        <v>890.893515694255</v>
       </c>
       <c r="C43" t="n">
-        <v>299.0935147726011</v>
+        <v>890.893515694255</v>
       </c>
       <c r="D43" t="n">
-        <v>133.2155219741237</v>
+        <v>725.0155228957777</v>
       </c>
       <c r="E43" t="n">
-        <v>133.2155219741237</v>
+        <v>555.2575191465151</v>
       </c>
       <c r="F43" t="n">
-        <v>133.2155219741237</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895472</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895472</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J43" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K43" t="n">
-        <v>320.0013704257346</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L43" t="n">
-        <v>862.0820538119935</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M43" t="n">
-        <v>992.686446150523</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N43" t="n">
-        <v>1120.185357954412</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O43" t="n">
         <v>1657.620488527956</v>
@@ -7593,7 +7593,7 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R43" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
         <v>2215.901038951971</v>
@@ -7614,7 +7614,7 @@
         <v>890.893515694255</v>
       </c>
       <c r="Y43" t="n">
-        <v>663.4738450083632</v>
+        <v>890.893515694255</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1308.351417301975</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C44" t="n">
-        <v>1308.351417301975</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D44" t="n">
-        <v>1308.351417301975</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E44" t="n">
-        <v>874.5766724602698</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F44" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L44" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P44" t="n">
         <v>2043.069798152528</v>
@@ -7672,28 +7672,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T44" t="n">
-        <v>2360.327577447736</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="U44" t="n">
-        <v>2360.327577447736</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="V44" t="n">
-        <v>2360.327577447736</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="W44" t="n">
-        <v>2142.937111487229</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="X44" t="n">
-        <v>2142.937111487229</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y44" t="n">
-        <v>1734.650987786883</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="45">
@@ -7721,7 +7721,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I45" t="n">
         <v>81.42328772043084</v>
@@ -7730,19 +7730,19 @@
         <v>175.316627066898</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M45" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O45" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P45" t="n">
         <v>1488.088567599445</v>
@@ -7782,55 +7782,55 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>663.4738450083632</v>
+        <v>944.4666516418554</v>
       </c>
       <c r="C46" t="n">
-        <v>663.4738450083632</v>
+        <v>771.9049401250803</v>
       </c>
       <c r="D46" t="n">
-        <v>663.4738450083632</v>
+        <v>606.026947326603</v>
       </c>
       <c r="E46" t="n">
-        <v>493.7158412591005</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F46" t="n">
-        <v>317.0087872208567</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G46" t="n">
-        <v>179.5506121696388</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895472</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J46" t="n">
         <v>106.1122152511378</v>
       </c>
       <c r="K46" t="n">
-        <v>202.912315818696</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L46" t="n">
-        <v>744.9929992049549</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M46" t="n">
-        <v>1329.174074623269</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N46" t="n">
-        <v>1898.931789584804</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O46" t="n">
-        <v>2173.320157362629</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P46" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R46" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
         <v>2215.901038951971</v>
@@ -7848,10 +7848,10 @@
         <v>1136.285270360843</v>
       </c>
       <c r="X46" t="n">
-        <v>890.893515694255</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="Y46" t="n">
-        <v>663.4738450083632</v>
+        <v>1136.285270360843</v>
       </c>
     </row>
   </sheetData>
@@ -8847,19 +8847,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>175.7179764032066</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512944</v>
@@ -8868,7 +8868,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>10.62967161639926</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9090,10 +9090,10 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>156.7304232042866</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -9102,7 +9102,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>192.4544649334016</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9321,22 +9321,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>45.75904403825018</v>
       </c>
       <c r="M19" t="n">
-        <v>444.9969971592897</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -9558,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>69.27619576520544</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -9570,13 +9570,13 @@
         <v>458.1582657371569</v>
       </c>
       <c r="N22" t="n">
-        <v>252.4394223833801</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9640,10 +9640,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>25.27462464027349</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>401.8848022143743</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>427.1594268546446</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9795,19 +9795,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>57.01424103287172</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
-        <v>180.4431792498099</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>81.10537790171077</v>
       </c>
       <c r="K26" t="n">
-        <v>3.7120598206767</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>452.330920160332</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>545.8002937490519</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>4.217953603099716</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
@@ -10053,7 +10053,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>4.217953603099431</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>194.6147915686047</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>432.2908800821579</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>16.39178053361684</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10272,7 +10272,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>4.217953603099716</v>
+        <v>4.217953603098806</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
@@ -10366,13 +10366,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>456.0429799810086</v>
+        <v>478.6092875185454</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>148.2963841322176</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10506,19 +10506,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956006</v>
+        <v>380.1894240459278</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
@@ -10527,7 +10527,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>4.217953603099886</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10749,22 +10749,22 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>93.97993254278276</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>181.0222629918462</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>177.1920849464593</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>156.730423204287</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11220,19 +11220,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>30.81754489126138</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
@@ -11457,25 +11457,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>458.1582657371567</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>158.2045317475392</v>
+        <v>264.6463123855406</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>408.9851551450803</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>416.3855777583094</v>
+        <v>416.3855777583096</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>410.5373356599062</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>126.6305253132384</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>253.9729163065506</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>27.01028645237264</v>
+        <v>27.01028645237285</v>
       </c>
       <c r="T11" t="n">
-        <v>196.6021193806005</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>243.4285649287228</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>344.024556976794</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>387.7554804080987</v>
+        <v>387.7554804080989</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>401.8996191515043</v>
       </c>
       <c r="Y11" t="n">
-        <v>391.1518428283647</v>
+        <v>391.151842828365</v>
       </c>
     </row>
     <row r="12">
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>49.41291406313628</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>226.7733322206491</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>191.8856220395889</v>
+        <v>262.5513459967663</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>106.6946942003377</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23497,22 +23497,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>420.7096284534328</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>416.3855777583094</v>
+        <v>416.3855777583096</v>
       </c>
       <c r="F14" t="n">
-        <v>410.537335659906</v>
+        <v>410.5373356599062</v>
       </c>
       <c r="G14" t="n">
-        <v>382.4562447723392</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>253.9729163065503</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>27.01028645237265</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>196.6021193806005</v>
+        <v>196.6021193806008</v>
       </c>
       <c r="U14" t="n">
-        <v>243.4285649287228</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>97.19505821144335</v>
+        <v>345.9393609305336</v>
       </c>
       <c r="W14" t="n">
-        <v>387.7554804080987</v>
+        <v>387.7554804080989</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>237.4140812874645</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>101.2344908689765</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>150.0423489486286</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.9692003794991</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>49.41291406313628</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>262.5513459967661</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>156.1076082634718</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>408.9851551450803</v>
+        <v>408.9851551450806</v>
       </c>
       <c r="C17" t="n">
-        <v>39.58144110543827</v>
+        <v>420.7096284534328</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23746,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>382.4562447723395</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>253.9729163065506</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>196.6021193806005</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>243.4285649287228</v>
+        <v>243.428564928723</v>
       </c>
       <c r="V17" t="n">
-        <v>345.9393609305334</v>
+        <v>345.9393609305336</v>
       </c>
       <c r="W17" t="n">
-        <v>387.7554804080987</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>401.8996191515041</v>
+        <v>359.851713341686</v>
       </c>
       <c r="Y17" t="n">
-        <v>391.1518428283647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>138.6857518357823</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>150.0423489486286</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>129.9308534758295</v>
+        <v>129.9308534758297</v>
       </c>
       <c r="T19" t="n">
-        <v>226.7733322206491</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>61.95476856375927</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>408.9851551450806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>418.4992673423216</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>416.3855777583094</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>225.6392091082134</v>
       </c>
       <c r="H20" t="n">
-        <v>4.833593978252537</v>
+        <v>253.9729163065506</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>196.6021193806005</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>243.4285649287228</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>345.9393609305334</v>
+        <v>345.9393609305336</v>
       </c>
       <c r="W20" t="n">
-        <v>387.7554804080987</v>
+        <v>387.7554804080989</v>
       </c>
       <c r="X20" t="n">
-        <v>401.8996191515041</v>
+        <v>401.8996191515043</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>391.151842828365</v>
       </c>
     </row>
     <row r="21">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>130.9434260177818</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>157.7846747666292</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>129.9308534758297</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>188.7725367752946</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>229.8864174849433</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>273.3362069190039</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>382.4562447723395</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>245.9531357500457</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>196.6021193806005</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>243.428564928723</v>
       </c>
       <c r="V23" t="n">
-        <v>345.9393609305334</v>
+        <v>345.9393609305336</v>
       </c>
       <c r="W23" t="n">
-        <v>387.7554804080987</v>
+        <v>387.7554804080989</v>
       </c>
       <c r="X23" t="n">
-        <v>401.8996191515041</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>391.1518428283647</v>
+        <v>391.151842828365</v>
       </c>
     </row>
     <row r="24">
@@ -24445,7 +24445,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>38.17000922538102</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>137.2811305303467</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24688,10 +24688,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>55.10829935906054</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>395.5076644073176</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>128.4701692121377</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24925,13 +24925,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>267.0243359415286</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>32.32644410725334</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>225.6817295781887</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>305.3969917679808</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>308.2989501168169</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
         <v>256.4799845637012</v>
@@ -25216,10 +25216,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25314,16 +25314,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>89.4745089810155</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.64464068571789</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>217.1939706653103</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -25408,7 +25408,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25450,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>136.9692629928759</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25605,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6027656317444</v>
+        <v>119.1276454350792</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>113.2693808714471</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>319.7193679414675</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25684,19 +25684,19 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>219.5693423016273</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>28.54824787247512</v>
       </c>
       <c r="G43" t="n">
-        <v>77.94488786268944</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
         <v>267.0243359415286</v>
@@ -25918,7 +25918,7 @@
         <v>40.061706087351</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>60.03778590972664</v>
       </c>
       <c r="U44" t="n">
         <v>256.4799845637012</v>
@@ -25927,13 +25927,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>185.5903387421752</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.3469376859581</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>27.01017528290112</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>293242.7554854035</v>
+        <v>293242.7554854033</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>293242.7554854035</v>
+        <v>293242.7554854032</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>293242.7554854035</v>
+        <v>293242.7554854032</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>293242.7554854035</v>
+        <v>293242.7554854033</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>351152.3946170966</v>
+        <v>351152.3946170967</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>362356.3368249646</v>
+        <v>362356.3368249645</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>362356.3368249646</v>
+        <v>362356.3368249645</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>277367.2696698085</v>
+        <v>277367.2696698086</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>277367.2696698085</v>
+        <v>277367.2696698086</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>277367.2696698084</v>
+        <v>277367.2696698085</v>
       </c>
     </row>
   </sheetData>
@@ -26322,16 +26322,16 @@
         <v>484130.7854230572</v>
       </c>
       <c r="E2" t="n">
-        <v>308800.2940330881</v>
+        <v>308800.2940330878</v>
       </c>
       <c r="F2" t="n">
-        <v>308800.2940330882</v>
+        <v>308800.2940330878</v>
       </c>
       <c r="G2" t="n">
-        <v>308800.2940330881</v>
+        <v>308800.2940330878</v>
       </c>
       <c r="H2" t="n">
-        <v>308800.294033088</v>
+        <v>308800.2940330878</v>
       </c>
       <c r="I2" t="n">
         <v>348920.3816198467</v>
@@ -26340,19 +26340,19 @@
         <v>349881.3576475701</v>
       </c>
       <c r="K2" t="n">
-        <v>349881.35764757</v>
+        <v>349881.3576475702</v>
       </c>
       <c r="L2" t="n">
         <v>349881.3576475701</v>
       </c>
       <c r="M2" t="n">
+        <v>291000.5069065118</v>
+      </c>
+      <c r="N2" t="n">
         <v>291000.5069065119</v>
       </c>
-      <c r="N2" t="n">
-        <v>291000.506906512</v>
-      </c>
       <c r="O2" t="n">
-        <v>291000.506906512</v>
+        <v>291000.5069065118</v>
       </c>
       <c r="P2" t="n">
         <v>291000.506906512</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>561576.3366986584</v>
+        <v>561576.3366986583</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28687.4375839612</v>
+        <v>28687.43758396141</v>
       </c>
       <c r="J3" t="n">
-        <v>13198.92408385236</v>
+        <v>13198.92408385212</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
-        <v>29277.32471676125</v>
+        <v>29277.32471676107</v>
       </c>
       <c r="F4" t="n">
-        <v>29277.32471676125</v>
+        <v>29277.32471676106</v>
       </c>
       <c r="G4" t="n">
-        <v>29277.32471676125</v>
+        <v>29277.32471676107</v>
       </c>
       <c r="H4" t="n">
-        <v>29277.32471676125</v>
+        <v>29277.32471676106</v>
       </c>
       <c r="I4" t="n">
-        <v>51470.56360276506</v>
+        <v>51470.56360276503</v>
       </c>
       <c r="J4" t="n">
-        <v>50865.18133183767</v>
+        <v>50865.18133183765</v>
       </c>
       <c r="K4" t="n">
-        <v>50865.18133183767</v>
+        <v>50865.18133183764</v>
       </c>
       <c r="L4" t="n">
-        <v>50865.18133183767</v>
+        <v>50865.18133183766</v>
       </c>
       <c r="M4" t="n">
         <v>18294.04639895361</v>
       </c>
       <c r="N4" t="n">
-        <v>18294.04639895361</v>
+        <v>18294.04639895362</v>
       </c>
       <c r="O4" t="n">
-        <v>18294.04639895361</v>
+        <v>18294.04639895362</v>
       </c>
       <c r="P4" t="n">
-        <v>18294.04639895361</v>
+        <v>18294.04639895362</v>
       </c>
     </row>
     <row r="5">
@@ -26478,25 +26478,25 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>47148.3010069308</v>
+        <v>47148.30100693079</v>
       </c>
       <c r="F5" t="n">
-        <v>47148.30100693079</v>
+        <v>47148.30100693078</v>
       </c>
       <c r="G5" t="n">
-        <v>47148.30100693079</v>
+        <v>47148.30100693078</v>
       </c>
       <c r="H5" t="n">
-        <v>47148.3010069308</v>
+        <v>47148.30100693078</v>
       </c>
       <c r="I5" t="n">
-        <v>53707.37759398048</v>
+        <v>53707.37759398052</v>
       </c>
       <c r="J5" t="n">
-        <v>55677.28176780177</v>
+        <v>55677.28176780176</v>
       </c>
       <c r="K5" t="n">
-        <v>55677.28176780177</v>
+        <v>55677.28176780176</v>
       </c>
       <c r="L5" t="n">
         <v>55677.28176780177</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>151772.4691112243</v>
+        <v>151740.5623937226</v>
       </c>
       <c r="C6" t="n">
-        <v>151772.4691112243</v>
+        <v>151740.5623937228</v>
       </c>
       <c r="D6" t="n">
-        <v>151772.4691112243</v>
+        <v>151740.5623937227</v>
       </c>
       <c r="E6" t="n">
-        <v>-329201.6683892623</v>
+        <v>-329707.4412997097</v>
       </c>
       <c r="F6" t="n">
-        <v>232374.6683093962</v>
+        <v>231868.8953989486</v>
       </c>
       <c r="G6" t="n">
-        <v>232374.6683093961</v>
+        <v>231868.8953989485</v>
       </c>
       <c r="H6" t="n">
-        <v>232374.668309396</v>
+        <v>231868.8953989485</v>
       </c>
       <c r="I6" t="n">
-        <v>215055.0028391399</v>
+        <v>214657.6625978457</v>
       </c>
       <c r="J6" t="n">
-        <v>230139.9704640783</v>
+        <v>229745.2274552919</v>
       </c>
       <c r="K6" t="n">
-        <v>243338.8945479306</v>
+        <v>242944.1515391441</v>
       </c>
       <c r="L6" t="n">
-        <v>243338.8945479306</v>
+        <v>242944.151539144</v>
       </c>
       <c r="M6" t="n">
-        <v>119060.0004331236</v>
+        <v>118506.1199899016</v>
       </c>
       <c r="N6" t="n">
-        <v>226655.3792979206</v>
+        <v>226101.4988546986</v>
       </c>
       <c r="O6" t="n">
-        <v>226655.3792979206</v>
+        <v>226101.4988546985</v>
       </c>
       <c r="P6" t="n">
-        <v>226655.3792979206</v>
+        <v>226101.4988546987</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="F2" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="G2" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="H2" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="I2" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26749,10 +26749,10 @@
         <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
         <v>466.7019280932211</v>
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
         <v>590.081894361934</v>
@@ -26810,28 +26810,28 @@
         <v>590.081894361934</v>
       </c>
       <c r="I4" t="n">
-        <v>697.9614434910408</v>
+        <v>697.9614434910416</v>
       </c>
       <c r="J4" t="n">
-        <v>748.4075614369992</v>
+        <v>748.4075614369991</v>
       </c>
       <c r="K4" t="n">
-        <v>748.4075614369992</v>
+        <v>748.4075614369991</v>
       </c>
       <c r="L4" t="n">
         <v>748.4075614369992</v>
       </c>
       <c r="M4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="O4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="P4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>107.8795491291067</v>
+        <v>107.8795491291075</v>
       </c>
       <c r="J4" t="n">
-        <v>50.44611794595846</v>
+        <v>50.44611794595755</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>431.7562272868688</v>
+        <v>431.756227286869</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="C11" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="D11" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="E11" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="F11" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="G11" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="H11" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="T11" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="U11" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="V11" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="W11" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="X11" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
     </row>
     <row r="12">
@@ -28247,28 +28247,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="C13" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="D13" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="E13" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="F13" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="G13" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="H13" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="I13" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28298,25 +28298,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="T13" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="U13" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="V13" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="W13" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="X13" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="C14" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="D14" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="E14" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="F14" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="G14" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="H14" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="T14" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="U14" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="V14" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="W14" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="X14" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
     </row>
     <row r="15">
@@ -28484,28 +28484,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="C16" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="D16" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="E16" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="F16" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="G16" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="H16" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="I16" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28535,25 +28535,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="T16" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="U16" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="V16" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="W16" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="X16" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="C17" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="D17" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="E17" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="F17" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="G17" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="H17" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="T17" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="U17" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="V17" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="W17" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="X17" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="Y17" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
     </row>
     <row r="18">
@@ -28721,28 +28721,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="C19" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="D19" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="E19" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="F19" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="G19" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="H19" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="I19" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28772,25 +28772,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="T19" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="U19" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="V19" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="W19" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="X19" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="C20" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="D20" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="E20" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="F20" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="G20" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="H20" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="T20" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="U20" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="V20" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="W20" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="X20" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="Y20" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
     </row>
     <row r="21">
@@ -28958,28 +28958,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="C22" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="D22" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="E22" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="F22" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="G22" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="H22" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="I22" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29009,25 +29009,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="T22" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="U22" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="V22" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="W22" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="X22" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="Y22" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="C23" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="D23" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="E23" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="F23" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="G23" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="H23" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="T23" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="U23" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="V23" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="W23" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="X23" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="Y23" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
     </row>
     <row r="24">
@@ -29195,28 +29195,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="C25" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="D25" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="E25" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="F25" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="G25" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="H25" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="I25" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29246,25 +29246,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="T25" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="U25" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="V25" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="W25" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="X25" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
       <c r="Y25" t="n">
-        <v>13.05141963497836</v>
+        <v>13.05141963497814</v>
       </c>
     </row>
     <row r="26">
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H11" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
@@ -31773,7 +31773,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
         <v>316.116681354841</v>
@@ -31782,19 +31782,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R11" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S11" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,25 +31837,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K12" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L12" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
         <v>191.6912126917232</v>
@@ -31864,7 +31864,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
@@ -31873,7 +31873,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
         <v>97.77787936116989</v>
@@ -31931,16 +31931,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O13" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R13" t="n">
         <v>37.84111043195198</v>
@@ -31952,7 +31952,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H14" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062837</v>
@@ -32010,28 +32010,28 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
         <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,46 +32071,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646698</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M16" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O16" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R16" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H17" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062837</v>
@@ -32247,28 +32247,28 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
         <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,46 +32308,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916864</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O19" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R19" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32566,7 +32566,7 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742736</v>
       </c>
       <c r="P21" t="n">
         <v>191.6912126917232</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H23" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
@@ -32721,7 +32721,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
         <v>316.116681354841</v>
@@ -32730,19 +32730,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,25 +32785,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562368</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K24" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
         <v>191.6912126917232</v>
@@ -32812,7 +32812,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
@@ -32821,7 +32821,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
         <v>97.77787936116989</v>
@@ -32879,16 +32879,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R25" t="n">
         <v>37.84111043195198</v>
@@ -32900,7 +32900,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33262,7 +33262,7 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562362</v>
       </c>
       <c r="K30" t="n">
         <v>162.099668741586</v>
@@ -33508,7 +33508,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108057</v>
       </c>
       <c r="N33" t="n">
         <v>261.0845059811313</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H35" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
@@ -33669,7 +33669,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O35" t="n">
         <v>316.116681354841</v>
@@ -33678,19 +33678,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R35" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T35" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,25 +33733,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I36" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K36" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N36" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P36" t="n">
         <v>191.6912126917232</v>
@@ -33760,7 +33760,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
@@ -33769,7 +33769,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K37" t="n">
         <v>97.77787936116989</v>
@@ -33827,16 +33827,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R37" t="n">
         <v>37.84111043195198</v>
@@ -33848,7 +33848,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33997,7 +33997,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
@@ -34213,7 +34213,7 @@
         <v>94.84175691562336</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415862</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
         <v>217.963008964669</v>
@@ -34450,7 +34450,7 @@
         <v>94.84175691562336</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415862</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L45" t="n">
         <v>217.963008964669</v>
@@ -34465,7 +34465,7 @@
         <v>238.8413159742732</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
@@ -35415,16 +35415,16 @@
         <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816031</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
         <v>269.7982739184533</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916783</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L12" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742734</v>
@@ -35567,31 +35567,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624556</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K13" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>547.5562458447059</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998884</v>
+        <v>304.5047560030951</v>
       </c>
       <c r="O13" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P13" t="n">
-        <v>452.8039900485105</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
-        <v>81.10166275847541</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,16 +35643,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
@@ -35661,16 +35661,16 @@
         <v>334.7730322994719</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916794</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646698</v>
+        <v>217.9630089646688</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
         <v>62.32672164233622</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
-        <v>281.8524450409511</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>590.081894361934</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N16" t="n">
-        <v>575.5128433954892</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O16" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>294.2413903654051</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207615</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,16 +35880,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
         <v>159.2391669125709</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766676</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
         <v>329.4423112816032</v>
@@ -35901,13 +35901,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916864</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N18" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
         <v>62.32672164233622</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624556</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366645</v>
+        <v>170.8810658749147</v>
       </c>
       <c r="M19" t="n">
-        <v>576.9206257840668</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N19" t="n">
-        <v>575.5128433954891</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O19" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P19" t="n">
         <v>101.7869254320035</v>
@@ -36065,7 +36065,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562353</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K21" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M21" t="n">
         <v>254.3525508108055</v>
@@ -36214,7 +36214,7 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742736</v>
       </c>
       <c r="P21" t="n">
         <v>191.6912126917232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624556</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116988</v>
+        <v>167.0540751263753</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366645</v>
@@ -36290,13 +36290,13 @@
         <v>590.081894361934</v>
       </c>
       <c r="N22" t="n">
-        <v>381.2262019832685</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O22" t="n">
-        <v>542.8637682561043</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P22" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
         <v>70.4719911420766</v>
@@ -36354,16 +36354,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>263.9328573465573</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>697.9614434910416</v>
       </c>
       <c r="M23" t="n">
         <v>329.4423112816032</v>
@@ -36378,7 +36378,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
-        <v>629.7666945425917</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
         <v>117.855135640546</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562368</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
@@ -36451,7 +36451,7 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P24" t="n">
         <v>191.6912126917232</v>
@@ -36515,31 +36515,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L25" t="n">
-        <v>547.5562458447059</v>
+        <v>182.1362628695363</v>
       </c>
       <c r="M25" t="n">
-        <v>131.9236286247772</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N25" t="n">
-        <v>309.2299588496983</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O25" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>452.8039900485101</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q25" t="n">
         <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J26" t="n">
-        <v>159.239166912571</v>
+        <v>240.3445448142817</v>
       </c>
       <c r="K26" t="n">
-        <v>242.3702925269604</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>748.4075614369992</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
         <v>329.4423112816032</v>
@@ -36615,10 +36615,10 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.6072676879471</v>
+        <v>748.407561436999</v>
       </c>
       <c r="R26" t="n">
-        <v>288.7178273103004</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562362</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K27" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415863</v>
       </c>
       <c r="L27" t="n">
         <v>217.963008964669</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K28" t="n">
-        <v>101.9958329642696</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M28" t="n">
-        <v>596.0487469893359</v>
+        <v>596.0487469893358</v>
       </c>
       <c r="N28" t="n">
         <v>575.5128433954892</v>
@@ -36773,7 +36773,7 @@
         <v>452.8039900485101</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.47199114207615</v>
+        <v>74.68994474517558</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027014</v>
@@ -36831,13 +36831,13 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J29" t="n">
-        <v>598.8903663599629</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>490.6914328452721</v>
       </c>
       <c r="M29" t="n">
         <v>329.4423112816032</v>
@@ -36846,16 +36846,16 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548409</v>
+        <v>748.407561436999</v>
       </c>
       <c r="P29" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
-        <v>218.999048221564</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
-        <v>288.7178273103004</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562362</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415863</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
         <v>217.963008964669</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K31" t="n">
-        <v>101.9958329642696</v>
+        <v>101.9958329642687</v>
       </c>
       <c r="L31" t="n">
         <v>547.556245844706</v>
@@ -37010,7 +37010,7 @@
         <v>452.8039900485101</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.47199114207615</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027014</v>
@@ -37086,13 +37086,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>725.8412538994621</v>
+        <v>748.407561436999</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.6072676879471</v>
+        <v>350.9036518201647</v>
       </c>
       <c r="R32" t="n">
-        <v>288.7178273103004</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562362</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K33" t="n">
         <v>162.099668741586</v>
@@ -37156,7 +37156,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108057</v>
       </c>
       <c r="N33" t="n">
         <v>261.0845059811313</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624557</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
         <v>547.5562458447059</v>
       </c>
       <c r="M34" t="n">
-        <v>596.0487469893358</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>575.5128433954892</v>
+        <v>508.9762036458162</v>
       </c>
       <c r="O34" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>452.8039900485101</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.68994474517604</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027014</v>
@@ -37302,10 +37302,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J35" t="n">
-        <v>159.2391669125705</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062837</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916794</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K36" t="n">
-        <v>162.0996687415862</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646688</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K37" t="n">
         <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
-        <v>219.1019543794473</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N37" t="n">
-        <v>575.5128433954891</v>
+        <v>309.8090425917346</v>
       </c>
       <c r="O37" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.36368292423</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R37" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816028</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562336</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K40" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
-        <v>309.1157135712365</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O40" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
-        <v>452.8039900485103</v>
+        <v>258.5173486362905</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.36368292423</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027014</v>
@@ -37779,13 +37779,13 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J41" t="n">
-        <v>159.2391669125707</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816032</v>
@@ -37797,7 +37797,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916796</v>
       </c>
       <c r="J42" t="n">
         <v>94.84175691562336</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415862</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
         <v>217.963008964669</v>
@@ -37940,19 +37940,19 @@
         <v>146.9548978453262</v>
       </c>
       <c r="K43" t="n">
-        <v>128.5954242524313</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
         <v>547.556245844706</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247772</v>
+        <v>309.1157135712369</v>
       </c>
       <c r="N43" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P43" t="n">
         <v>452.8039900485103</v>
@@ -38016,13 +38016,13 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
         <v>329.4423112816032</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J45" t="n">
         <v>94.84175691562336</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415862</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L45" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M45" t="n">
         <v>254.3525508108055</v>
@@ -38113,7 +38113,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619339</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
-        <v>277.1599674523491</v>
+        <v>383.6017480903504</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027014</v>
